--- a/dataanalysis/data/predictions/1600/08201502_1505.xlsx
+++ b/dataanalysis/data/predictions/1600/08201502_1505.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="216">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-08-20</t>
   </si>
   <si>
@@ -659,12 +662,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH117"/>
+  <dimension ref="A1:AI117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1131,19 +1128,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-2.19</v>
@@ -1161,7 +1161,7 @@
         <v>114960.76</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -1202,8 +1202,23 @@
       <c r="W2">
         <v>-1.78</v>
       </c>
+      <c r="X2">
+        <v>-0.27</v>
+      </c>
+      <c r="Y2">
+        <v>12.19</v>
+      </c>
+      <c r="Z2">
+        <v>8.94</v>
+      </c>
       <c r="AC2" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1211,22 +1226,25 @@
       <c r="AG2">
         <v>8.072503089904785</v>
       </c>
-      <c r="AH2" t="s">
-        <v>215</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300033</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-0.71</v>
@@ -1244,7 +1262,7 @@
         <v>500216.73</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1285,8 +1303,23 @@
       <c r="W3">
         <v>-0.3</v>
       </c>
+      <c r="X3">
+        <v>-1.54</v>
+      </c>
+      <c r="Y3">
+        <v>393.18</v>
+      </c>
+      <c r="Z3">
+        <v>1.73</v>
+      </c>
       <c r="AC3" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1294,22 +1327,25 @@
       <c r="AG3">
         <v>10.21398067474365</v>
       </c>
-      <c r="AH3" t="s">
-        <v>215</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300046</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.74</v>
@@ -1327,7 +1363,7 @@
         <v>170481.89</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -1368,8 +1404,23 @@
       <c r="W4">
         <v>-1.05</v>
       </c>
+      <c r="X4">
+        <v>-3.54</v>
+      </c>
+      <c r="Y4">
+        <v>48.61</v>
+      </c>
+      <c r="Z4">
+        <v>1.82</v>
+      </c>
       <c r="AC4" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1377,22 +1428,25 @@
       <c r="AG4">
         <v>14.32243919372559</v>
       </c>
-      <c r="AH4" t="s">
-        <v>215</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300049</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.29</v>
@@ -1410,7 +1464,7 @@
         <v>359142.22</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1451,8 +1505,23 @@
       <c r="W5">
         <v>-2.92</v>
       </c>
+      <c r="X5">
+        <v>-4.63</v>
+      </c>
+      <c r="Y5">
+        <v>73.88</v>
+      </c>
+      <c r="Z5">
+        <v>3.62</v>
+      </c>
       <c r="AC5" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1460,22 +1529,25 @@
       <c r="AG5">
         <v>28.94210243225098</v>
       </c>
-      <c r="AH5" t="s">
-        <v>215</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300059</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.67</v>
@@ -1493,7 +1565,7 @@
         <v>1781759.59</v>
       </c>
       <c r="J6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1534,8 +1606,23 @@
       <c r="W6">
         <v>-0.39</v>
       </c>
+      <c r="X6">
+        <v>-1.03</v>
+      </c>
+      <c r="Y6">
+        <v>27.45</v>
+      </c>
+      <c r="Z6">
+        <v>1.37</v>
+      </c>
       <c r="AC6" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1543,22 +1630,25 @@
       <c r="AG6">
         <v>0.9624055624008179</v>
       </c>
-      <c r="AH6" t="s">
-        <v>215</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300066</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6.21</v>
@@ -1576,7 +1666,7 @@
         <v>170090.5</v>
       </c>
       <c r="J7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1617,8 +1707,23 @@
       <c r="W7">
         <v>1.61</v>
       </c>
+      <c r="X7">
+        <v>-6.52</v>
+      </c>
+      <c r="Y7">
+        <v>7.52</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
       <c r="AC7" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1626,22 +1731,25 @@
       <c r="AG7">
         <v>4.804839134216309</v>
       </c>
-      <c r="AH7" t="s">
-        <v>215</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300145</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-0.19</v>
@@ -1659,7 +1767,7 @@
         <v>83224.89</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K8">
         <v>6</v>
@@ -1700,8 +1808,23 @@
       <c r="W8">
         <v>-0.21</v>
       </c>
+      <c r="X8">
+        <v>-1.74</v>
+      </c>
+      <c r="Y8">
+        <v>5.23</v>
+      </c>
+      <c r="Z8">
+        <v>1.36</v>
+      </c>
       <c r="AC8" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1709,22 +1832,25 @@
       <c r="AG8">
         <v>3.521489381790161</v>
       </c>
-      <c r="AH8" t="s">
-        <v>215</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300184</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1.21</v>
@@ -1742,7 +1868,7 @@
         <v>156334.31</v>
       </c>
       <c r="J9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1783,8 +1909,23 @@
       <c r="W9">
         <v>0.14</v>
       </c>
+      <c r="X9">
+        <v>2.48</v>
+      </c>
+      <c r="Y9">
+        <v>12.48</v>
+      </c>
+      <c r="Z9">
+        <v>6.67</v>
+      </c>
       <c r="AC9" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1792,22 +1933,25 @@
       <c r="AG9">
         <v>2.926780462265015</v>
       </c>
-      <c r="AH9" t="s">
-        <v>215</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300195</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>1.86</v>
@@ -1825,7 +1969,7 @@
         <v>39928.58</v>
       </c>
       <c r="J10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1866,8 +2010,23 @@
       <c r="W10">
         <v>-0.66</v>
       </c>
+      <c r="X10">
+        <v>-2.86</v>
+      </c>
+      <c r="Y10">
+        <v>8.73</v>
+      </c>
+      <c r="Z10">
+        <v>-0.11</v>
+      </c>
       <c r="AC10" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1875,22 +2034,25 @@
       <c r="AG10">
         <v>7.152992248535156</v>
       </c>
-      <c r="AH10" t="s">
-        <v>215</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300199</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-0.21</v>
@@ -1908,7 +2070,7 @@
         <v>413151.05</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1949,8 +2111,23 @@
       <c r="W11">
         <v>-1.02</v>
       </c>
+      <c r="X11">
+        <v>2.57</v>
+      </c>
+      <c r="Y11">
+        <v>30.7</v>
+      </c>
+      <c r="Z11">
+        <v>5.14</v>
+      </c>
       <c r="AC11" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1958,22 +2135,25 @@
       <c r="AG11">
         <v>4.814102172851562</v>
       </c>
-      <c r="AH11" t="s">
-        <v>215</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300213</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.82</v>
@@ -1991,7 +2171,7 @@
         <v>71299.12</v>
       </c>
       <c r="J12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -2032,8 +2212,23 @@
       <c r="W12">
         <v>0.61</v>
       </c>
+      <c r="X12">
+        <v>-3.45</v>
+      </c>
+      <c r="Y12">
+        <v>11.18</v>
+      </c>
+      <c r="Z12">
+        <v>1.45</v>
+      </c>
       <c r="AC12" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2041,22 +2236,25 @@
       <c r="AG12">
         <v>3.809550285339355</v>
       </c>
-      <c r="AH12" t="s">
-        <v>215</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300252</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-0.91</v>
@@ -2074,7 +2272,7 @@
         <v>103562.08</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -2115,8 +2313,23 @@
       <c r="W13">
         <v>-1.27</v>
       </c>
+      <c r="X13">
+        <v>-1.28</v>
+      </c>
+      <c r="Y13">
+        <v>14.27</v>
+      </c>
+      <c r="Z13">
+        <v>1.13</v>
+      </c>
       <c r="AC13" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2124,22 +2337,25 @@
       <c r="AG13">
         <v>0.9147356748580933</v>
       </c>
-      <c r="AH13" t="s">
-        <v>215</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300290</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>3.03</v>
@@ -2157,7 +2373,7 @@
         <v>98305.5</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2198,8 +2414,23 @@
       <c r="W14">
         <v>0.3</v>
       </c>
+      <c r="X14">
+        <v>4.03</v>
+      </c>
+      <c r="Y14">
+        <v>25.8</v>
+      </c>
+      <c r="Z14">
+        <v>8.4</v>
+      </c>
       <c r="AC14" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2207,22 +2438,25 @@
       <c r="AG14">
         <v>44.0101318359375</v>
       </c>
-      <c r="AH14" t="s">
-        <v>215</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300300</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-3.11</v>
@@ -2240,7 +2474,7 @@
         <v>36508.46</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -2281,8 +2515,23 @@
       <c r="W15">
         <v>-1.39</v>
       </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>6.13</v>
+      </c>
+      <c r="Z15">
+        <v>3.72</v>
+      </c>
       <c r="AC15" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2290,22 +2539,25 @@
       <c r="AG15">
         <v>1.803532242774963</v>
       </c>
-      <c r="AH15" t="s">
-        <v>215</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300304</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>2.88</v>
@@ -2323,7 +2575,7 @@
         <v>75281.32000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K16">
         <v>8</v>
@@ -2364,8 +2616,23 @@
       <c r="W16">
         <v>0.51</v>
       </c>
+      <c r="X16">
+        <v>-0.98</v>
+      </c>
+      <c r="Y16">
+        <v>13.39</v>
+      </c>
+      <c r="Z16">
+        <v>1.29</v>
+      </c>
       <c r="AC16" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2373,22 +2640,25 @@
       <c r="AG16">
         <v>5.914254188537598</v>
       </c>
-      <c r="AH16" t="s">
-        <v>215</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300324</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-1.88</v>
@@ -2406,7 +2676,7 @@
         <v>135756.65</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2447,8 +2717,23 @@
       <c r="W17">
         <v>-1.44</v>
       </c>
+      <c r="X17">
+        <v>2.44</v>
+      </c>
+      <c r="Y17">
+        <v>6.03</v>
+      </c>
+      <c r="Z17">
+        <v>5.05</v>
+      </c>
       <c r="AC17" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2456,22 +2741,25 @@
       <c r="AG17">
         <v>7.619741439819336</v>
       </c>
-      <c r="AH17" t="s">
-        <v>215</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300328</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>7.54</v>
@@ -2489,7 +2777,7 @@
         <v>363819.11</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2530,8 +2818,23 @@
       <c r="W18">
         <v>-3.58</v>
       </c>
+      <c r="X18">
+        <v>-5.64</v>
+      </c>
+      <c r="Y18">
+        <v>18.29</v>
+      </c>
+      <c r="Z18">
+        <v>0.16</v>
+      </c>
       <c r="AC18" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>1</v>
@@ -2539,22 +2842,25 @@
       <c r="AG18">
         <v>1.560214757919312</v>
       </c>
-      <c r="AH18" t="s">
-        <v>215</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300368</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.3</v>
@@ -2572,7 +2878,7 @@
         <v>176198.27</v>
       </c>
       <c r="J19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K19">
         <v>9</v>
@@ -2613,8 +2919,23 @@
       <c r="W19">
         <v>0.74</v>
       </c>
+      <c r="X19">
+        <v>-6.01</v>
+      </c>
+      <c r="Y19">
+        <v>17.45</v>
+      </c>
+      <c r="Z19">
+        <v>2.77</v>
+      </c>
       <c r="AC19" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2622,22 +2943,25 @@
       <c r="AG19">
         <v>0.8574668169021606</v>
       </c>
-      <c r="AH19" t="s">
-        <v>215</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300398</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>1.31</v>
@@ -2655,7 +2979,7 @@
         <v>109217.66</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K20">
         <v>6</v>
@@ -2696,8 +3020,23 @@
       <c r="W20">
         <v>-0.52</v>
       </c>
+      <c r="X20">
+        <v>-3.91</v>
+      </c>
+      <c r="Y20">
+        <v>24.08</v>
+      </c>
+      <c r="Z20">
+        <v>0.08</v>
+      </c>
       <c r="AC20" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2705,22 +3044,25 @@
       <c r="AG20">
         <v>4.968021392822266</v>
       </c>
-      <c r="AH20" t="s">
-        <v>215</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300404</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-6.01</v>
@@ -2738,7 +3080,7 @@
         <v>101534.57</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2779,8 +3121,23 @@
       <c r="W21">
         <v>1.08</v>
       </c>
+      <c r="X21">
+        <v>-3.07</v>
+      </c>
+      <c r="Y21">
+        <v>12.57</v>
+      </c>
+      <c r="Z21">
+        <v>1.7</v>
+      </c>
       <c r="AC21" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2788,22 +3145,25 @@
       <c r="AG21">
         <v>-0.9160948395729065</v>
       </c>
-      <c r="AH21" t="s">
-        <v>215</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300409</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>1.26</v>
@@ -2821,7 +3181,7 @@
         <v>151338.89</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2862,8 +3222,23 @@
       <c r="W22">
         <v>0.45</v>
       </c>
+      <c r="X22">
+        <v>-5.06</v>
+      </c>
+      <c r="Y22">
+        <v>22</v>
+      </c>
+      <c r="Z22">
+        <v>1.15</v>
+      </c>
       <c r="AC22" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2871,22 +3246,25 @@
       <c r="AG22">
         <v>1.05391263961792</v>
       </c>
-      <c r="AH22" t="s">
-        <v>215</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300499</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-1.64</v>
@@ -2904,7 +3282,7 @@
         <v>239920.26</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2945,8 +3323,23 @@
       <c r="W23">
         <v>-1.15</v>
       </c>
+      <c r="X23">
+        <v>-0.15</v>
+      </c>
+      <c r="Y23">
+        <v>33</v>
+      </c>
+      <c r="Z23">
+        <v>1.66</v>
+      </c>
       <c r="AC23" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2954,22 +3347,25 @@
       <c r="AG23">
         <v>1.692624092102051</v>
       </c>
-      <c r="AH23" t="s">
-        <v>215</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300539</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-7.89</v>
@@ -2987,7 +3383,7 @@
         <v>78932.28</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -3028,8 +3424,23 @@
       <c r="W24">
         <v>-0.53</v>
       </c>
+      <c r="X24">
+        <v>-3.79</v>
+      </c>
+      <c r="Y24">
+        <v>33.92</v>
+      </c>
+      <c r="Z24">
+        <v>3.73</v>
+      </c>
       <c r="AC24" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3037,22 +3448,25 @@
       <c r="AG24">
         <v>0.7823371291160583</v>
       </c>
-      <c r="AH24" t="s">
-        <v>215</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300547</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>-4.13</v>
@@ -3070,7 +3484,7 @@
         <v>206090.01</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -3111,8 +3525,23 @@
       <c r="W25">
         <v>-0.78</v>
       </c>
+      <c r="X25">
+        <v>-4.93</v>
+      </c>
+      <c r="Y25">
+        <v>52.5</v>
+      </c>
+      <c r="Z25">
+        <v>1.55</v>
+      </c>
       <c r="AC25" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3120,22 +3549,25 @@
       <c r="AG25">
         <v>4.352779865264893</v>
       </c>
-      <c r="AH25" t="s">
-        <v>215</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300548</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>6.04</v>
@@ -3153,7 +3585,7 @@
         <v>311533.85</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K26">
         <v>27</v>
@@ -3194,8 +3626,23 @@
       <c r="W26">
         <v>0.6</v>
       </c>
+      <c r="X26">
+        <v>-6.28</v>
+      </c>
+      <c r="Y26">
+        <v>110.22</v>
+      </c>
+      <c r="Z26">
+        <v>3.67</v>
+      </c>
       <c r="AC26" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3203,22 +3650,25 @@
       <c r="AG26">
         <v>-9.496793746948242</v>
       </c>
-      <c r="AH26" t="s">
-        <v>215</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300584</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-3.24</v>
@@ -3236,7 +3686,7 @@
         <v>77902.17</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K27">
         <v>7</v>
@@ -3277,8 +3727,23 @@
       <c r="W27">
         <v>-1.61</v>
       </c>
+      <c r="X27">
+        <v>-4.18</v>
+      </c>
+      <c r="Y27">
+        <v>55.48</v>
+      </c>
+      <c r="Z27">
+        <v>0.45</v>
+      </c>
       <c r="AC27" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3286,22 +3751,25 @@
       <c r="AG27">
         <v>-10.37032890319824</v>
       </c>
-      <c r="AH27" t="s">
-        <v>215</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300593</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-1.38</v>
@@ -3319,7 +3787,7 @@
         <v>66165.99000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3360,8 +3828,23 @@
       <c r="W28">
         <v>0.83</v>
       </c>
+      <c r="X28">
+        <v>-3.9</v>
+      </c>
+      <c r="Y28">
+        <v>20.17</v>
+      </c>
+      <c r="Z28">
+        <v>0.85</v>
+      </c>
       <c r="AC28" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1</v>
@@ -3369,22 +3852,25 @@
       <c r="AG28">
         <v>9.742262840270996</v>
       </c>
-      <c r="AH28" t="s">
-        <v>216</v>
+      <c r="AH28">
+        <v>1</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300602</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-2.16</v>
@@ -3402,7 +3888,7 @@
         <v>186032.51</v>
       </c>
       <c r="J29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -3443,8 +3929,23 @@
       <c r="W29">
         <v>-0.53</v>
       </c>
+      <c r="X29">
+        <v>-2.64</v>
+      </c>
+      <c r="Y29">
+        <v>36.27</v>
+      </c>
+      <c r="Z29">
+        <v>5.19</v>
+      </c>
       <c r="AC29" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3452,22 +3953,25 @@
       <c r="AG29">
         <v>7.575308799743652</v>
       </c>
-      <c r="AH29" t="s">
-        <v>215</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300609</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-7.92</v>
@@ -3485,7 +3989,7 @@
         <v>85628.07000000001</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30">
         <v>16</v>
@@ -3526,8 +4030,23 @@
       <c r="W30">
         <v>-1.23</v>
       </c>
+      <c r="X30">
+        <v>-2.87</v>
+      </c>
+      <c r="Y30">
+        <v>55.07</v>
+      </c>
+      <c r="Z30">
+        <v>1.42</v>
+      </c>
       <c r="AC30" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3535,22 +4054,25 @@
       <c r="AG30">
         <v>-0.1938534080982208</v>
       </c>
-      <c r="AH30" t="s">
-        <v>215</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300620</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-6.74</v>
@@ -3568,7 +4090,7 @@
         <v>304541.49</v>
       </c>
       <c r="J31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3609,8 +4131,23 @@
       <c r="W31">
         <v>-1.01</v>
       </c>
+      <c r="X31">
+        <v>-6.13</v>
+      </c>
+      <c r="Y31">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="Z31">
+        <v>1.63</v>
+      </c>
       <c r="AC31" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3618,22 +4155,25 @@
       <c r="AG31">
         <v>1.650527477264404</v>
       </c>
-      <c r="AH31" t="s">
-        <v>215</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300631</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>-3.77</v>
@@ -3651,7 +4191,7 @@
         <v>103399.37</v>
       </c>
       <c r="J32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -3692,8 +4232,23 @@
       <c r="W32">
         <v>-3.12</v>
       </c>
+      <c r="X32">
+        <v>-2.82</v>
+      </c>
+      <c r="Y32">
+        <v>36.3</v>
+      </c>
+      <c r="Z32">
+        <v>2.31</v>
+      </c>
       <c r="AC32" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3701,22 +4256,25 @@
       <c r="AG32">
         <v>0.8274118900299072</v>
       </c>
-      <c r="AH32" t="s">
-        <v>215</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300637</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-0.38</v>
@@ -3734,7 +4292,7 @@
         <v>40131.93</v>
       </c>
       <c r="J33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3775,8 +4333,23 @@
       <c r="W33">
         <v>-0.68</v>
       </c>
+      <c r="X33">
+        <v>2.75</v>
+      </c>
+      <c r="Y33">
+        <v>16.5</v>
+      </c>
+      <c r="Z33">
+        <v>5.36</v>
+      </c>
       <c r="AC33" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3784,22 +4357,25 @@
       <c r="AG33">
         <v>0.4614876806735992</v>
       </c>
-      <c r="AH33" t="s">
-        <v>215</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300642</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>7.45</v>
@@ -3817,7 +4393,7 @@
         <v>86532.95</v>
       </c>
       <c r="J34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -3858,8 +4434,23 @@
       <c r="W34">
         <v>0.72</v>
       </c>
+      <c r="X34">
+        <v>-2.78</v>
+      </c>
+      <c r="Y34">
+        <v>25</v>
+      </c>
+      <c r="Z34">
+        <v>0.77</v>
+      </c>
       <c r="AC34" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3867,22 +4458,25 @@
       <c r="AG34">
         <v>4.307407379150391</v>
       </c>
-      <c r="AH34" t="s">
-        <v>215</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300665</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>7.08</v>
@@ -3900,7 +4494,7 @@
         <v>46494.22</v>
       </c>
       <c r="J35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3941,8 +4535,23 @@
       <c r="W35">
         <v>0.04</v>
       </c>
+      <c r="X35">
+        <v>10.4</v>
+      </c>
+      <c r="Y35">
+        <v>12.85</v>
+      </c>
+      <c r="Z35">
+        <v>10.4</v>
+      </c>
       <c r="AC35" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3950,22 +4559,25 @@
       <c r="AG35">
         <v>4.712961196899414</v>
       </c>
-      <c r="AH35" t="s">
-        <v>215</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300671</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-1.75</v>
@@ -3983,7 +4595,7 @@
         <v>67832.83</v>
       </c>
       <c r="J36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K36">
         <v>7</v>
@@ -4024,8 +4636,23 @@
       <c r="W36">
         <v>-0.28</v>
       </c>
+      <c r="X36">
+        <v>-2.87</v>
+      </c>
+      <c r="Y36">
+        <v>45.89</v>
+      </c>
+      <c r="Z36">
+        <v>8.720000000000001</v>
+      </c>
       <c r="AC36" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4033,22 +4660,25 @@
       <c r="AG36">
         <v>-1.47346043586731</v>
       </c>
-      <c r="AH36" t="s">
-        <v>215</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300684</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>7.47</v>
@@ -4066,7 +4696,7 @@
         <v>177642.16</v>
       </c>
       <c r="J37" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K37">
         <v>16</v>
@@ -4107,8 +4737,23 @@
       <c r="W37">
         <v>1.19</v>
       </c>
+      <c r="X37">
+        <v>-7.31</v>
+      </c>
+      <c r="Y37">
+        <v>38.54</v>
+      </c>
+      <c r="Z37">
+        <v>-0.8</v>
+      </c>
       <c r="AC37" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4116,22 +4761,25 @@
       <c r="AG37">
         <v>4.749722957611084</v>
       </c>
-      <c r="AH37" t="s">
-        <v>215</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300690</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.09</v>
@@ -4149,7 +4797,7 @@
         <v>76452.82000000001</v>
       </c>
       <c r="J38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -4190,8 +4838,23 @@
       <c r="W38">
         <v>-1.57</v>
       </c>
+      <c r="X38">
+        <v>-4.48</v>
+      </c>
+      <c r="Y38">
+        <v>38.76</v>
+      </c>
+      <c r="Z38">
+        <v>-0.6899999999999999</v>
+      </c>
       <c r="AC38" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4199,22 +4862,25 @@
       <c r="AG38">
         <v>1.537610411643982</v>
       </c>
-      <c r="AH38" t="s">
-        <v>215</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300703</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>6.52</v>
@@ -4232,7 +4898,7 @@
         <v>88896.84</v>
       </c>
       <c r="J39" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -4273,8 +4939,23 @@
       <c r="W39">
         <v>1.98</v>
       </c>
+      <c r="X39">
+        <v>-5.67</v>
+      </c>
+      <c r="Y39">
+        <v>38.53</v>
+      </c>
+      <c r="Z39">
+        <v>2.61</v>
+      </c>
       <c r="AC39" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4282,22 +4963,25 @@
       <c r="AG39">
         <v>3.835474014282227</v>
       </c>
-      <c r="AH39" t="s">
-        <v>215</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300706</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>0.47</v>
@@ -4315,7 +4999,7 @@
         <v>111675.47</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K40">
         <v>19</v>
@@ -4356,8 +5040,23 @@
       <c r="W40">
         <v>-0.2</v>
       </c>
+      <c r="X40">
+        <v>-7.94</v>
+      </c>
+      <c r="Y40">
+        <v>49.01</v>
+      </c>
+      <c r="Z40">
+        <v>0.06</v>
+      </c>
       <c r="AC40" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4365,22 +5064,25 @@
       <c r="AG40">
         <v>5.839117050170898</v>
       </c>
-      <c r="AH40" t="s">
-        <v>215</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300709</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>2.68</v>
@@ -4398,7 +5100,7 @@
         <v>94127.67999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -4439,8 +5141,23 @@
       <c r="W41">
         <v>1.21</v>
       </c>
+      <c r="X41">
+        <v>-4.23</v>
+      </c>
+      <c r="Y41">
+        <v>52.78</v>
+      </c>
+      <c r="Z41">
+        <v>1.87</v>
+      </c>
       <c r="AC41" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4448,22 +5165,25 @@
       <c r="AG41">
         <v>2.647837162017822</v>
       </c>
-      <c r="AH41" t="s">
-        <v>215</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300724</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>3.5</v>
@@ -4481,7 +5201,7 @@
         <v>204742.91</v>
       </c>
       <c r="J42" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4522,8 +5242,23 @@
       <c r="W42">
         <v>0.05</v>
       </c>
+      <c r="X42">
+        <v>-1.43</v>
+      </c>
+      <c r="Y42">
+        <v>78.97</v>
+      </c>
+      <c r="Z42">
+        <v>2.44</v>
+      </c>
       <c r="AC42" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4531,22 +5266,25 @@
       <c r="AG42">
         <v>-0.5856367945671082</v>
       </c>
-      <c r="AH42" t="s">
-        <v>215</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300727</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-3.32</v>
@@ -4564,7 +5302,7 @@
         <v>64309</v>
       </c>
       <c r="J43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4605,8 +5343,23 @@
       <c r="W43">
         <v>0.12</v>
       </c>
+      <c r="X43">
+        <v>-3.91</v>
+      </c>
+      <c r="Y43">
+        <v>40.38</v>
+      </c>
+      <c r="Z43">
+        <v>1.18</v>
+      </c>
       <c r="AC43" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4614,22 +5367,25 @@
       <c r="AG43">
         <v>1.91266393661499</v>
       </c>
-      <c r="AH43" t="s">
-        <v>215</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300730</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-4.92</v>
@@ -4647,7 +5403,7 @@
         <v>110603.84</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -4688,8 +5444,23 @@
       <c r="W44">
         <v>-3.33</v>
       </c>
+      <c r="X44">
+        <v>13.17</v>
+      </c>
+      <c r="Y44">
+        <v>22.96</v>
+      </c>
+      <c r="Z44">
+        <v>20.02</v>
+      </c>
       <c r="AC44" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4697,22 +5468,25 @@
       <c r="AG44">
         <v>3.624458074569702</v>
       </c>
-      <c r="AH44" t="s">
-        <v>215</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300752</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>8.59</v>
@@ -4730,7 +5504,7 @@
         <v>90651.96000000001</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -4771,8 +5545,23 @@
       <c r="W45">
         <v>2.56</v>
       </c>
+      <c r="X45">
+        <v>-1.73</v>
+      </c>
+      <c r="Y45">
+        <v>26.87</v>
+      </c>
+      <c r="Z45">
+        <v>3.23</v>
+      </c>
       <c r="AC45" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4780,22 +5569,25 @@
       <c r="AG45">
         <v>1.784866213798523</v>
       </c>
-      <c r="AH45" t="s">
-        <v>215</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300767</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-0.8</v>
@@ -4813,7 +5605,7 @@
         <v>89012.53999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4854,8 +5646,23 @@
       <c r="W46">
         <v>-1.37</v>
       </c>
+      <c r="X46">
+        <v>-0.05</v>
+      </c>
+      <c r="Y46">
+        <v>21.6</v>
+      </c>
+      <c r="Z46">
+        <v>2.22</v>
+      </c>
       <c r="AC46" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>1</v>
@@ -4863,22 +5670,25 @@
       <c r="AG46">
         <v>-6.315569400787354</v>
       </c>
-      <c r="AH46" t="s">
-        <v>215</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300796</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>-2.04</v>
@@ -4896,7 +5706,7 @@
         <v>27315.8</v>
       </c>
       <c r="J47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4937,8 +5747,23 @@
       <c r="W47">
         <v>-0.55</v>
       </c>
+      <c r="X47">
+        <v>-3.67</v>
+      </c>
+      <c r="Y47">
+        <v>12.03</v>
+      </c>
+      <c r="Z47">
+        <v>0.25</v>
+      </c>
       <c r="AC47" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4946,22 +5771,25 @@
       <c r="AG47">
         <v>4.839179515838623</v>
       </c>
-      <c r="AH47" t="s">
-        <v>215</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300803</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-1.78</v>
@@ -4979,7 +5807,7 @@
         <v>770784.51</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K48">
         <v>7</v>
@@ -5020,8 +5848,23 @@
       <c r="W48">
         <v>-1.09</v>
       </c>
+      <c r="X48">
+        <v>3.19</v>
+      </c>
+      <c r="Y48">
+        <v>132.81</v>
+      </c>
+      <c r="Z48">
+        <v>6.85</v>
+      </c>
       <c r="AC48" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5029,22 +5872,25 @@
       <c r="AG48">
         <v>13.62972259521484</v>
       </c>
-      <c r="AH48" t="s">
-        <v>215</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300806</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>13.3</v>
@@ -5062,7 +5908,7 @@
         <v>122410.23</v>
       </c>
       <c r="J49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K49">
         <v>4</v>
@@ -5103,8 +5949,23 @@
       <c r="W49">
         <v>0.9399999999999999</v>
       </c>
+      <c r="X49">
+        <v>-4.17</v>
+      </c>
+      <c r="Y49">
+        <v>25.97</v>
+      </c>
+      <c r="Z49">
+        <v>-1.63</v>
+      </c>
       <c r="AC49" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>1</v>
@@ -5112,22 +5973,25 @@
       <c r="AG49">
         <v>9.324219703674316</v>
       </c>
-      <c r="AH49" t="s">
-        <v>216</v>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300810</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-13.73</v>
@@ -5145,7 +6009,7 @@
         <v>158782.81</v>
       </c>
       <c r="J50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5186,8 +6050,23 @@
       <c r="W50">
         <v>-1.94</v>
       </c>
+      <c r="X50">
+        <v>-5.68</v>
+      </c>
+      <c r="Y50">
+        <v>57.44</v>
+      </c>
+      <c r="Z50">
+        <v>1.7</v>
+      </c>
       <c r="AC50" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5195,22 +6074,25 @@
       <c r="AG50">
         <v>3.718889951705933</v>
       </c>
-      <c r="AH50" t="s">
-        <v>215</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300811</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-3.49</v>
@@ -5228,7 +6110,7 @@
         <v>91214.37</v>
       </c>
       <c r="J51" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -5269,8 +6151,23 @@
       <c r="W51">
         <v>-0.09</v>
       </c>
+      <c r="X51">
+        <v>-4.53</v>
+      </c>
+      <c r="Y51">
+        <v>73.33</v>
+      </c>
+      <c r="Z51">
+        <v>2.27</v>
+      </c>
       <c r="AC51" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5278,22 +6175,25 @@
       <c r="AG51">
         <v>-3.742002487182617</v>
       </c>
-      <c r="AH51" t="s">
-        <v>215</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300814</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-3.34</v>
@@ -5311,7 +6211,7 @@
         <v>76358.77</v>
       </c>
       <c r="J52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5352,8 +6252,23 @@
       <c r="W52">
         <v>-0.18</v>
       </c>
+      <c r="X52">
+        <v>-4.91</v>
+      </c>
+      <c r="Y52">
+        <v>47.28</v>
+      </c>
+      <c r="Z52">
+        <v>-0.38</v>
+      </c>
       <c r="AC52" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5361,22 +6276,25 @@
       <c r="AG52">
         <v>-12.49081134796143</v>
       </c>
-      <c r="AH52" t="s">
-        <v>215</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300835</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-0.99</v>
@@ -5394,7 +6312,7 @@
         <v>51949.97</v>
       </c>
       <c r="J53" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K53">
         <v>22</v>
@@ -5435,8 +6353,23 @@
       <c r="W53">
         <v>-0.46</v>
       </c>
+      <c r="X53">
+        <v>-6.12</v>
+      </c>
+      <c r="Y53">
+        <v>64.7</v>
+      </c>
+      <c r="Z53">
+        <v>1.06</v>
+      </c>
       <c r="AC53" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5444,22 +6377,25 @@
       <c r="AG53">
         <v>-3.005193948745728</v>
       </c>
-      <c r="AH53" t="s">
-        <v>215</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300843</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-5.27</v>
@@ -5477,7 +6413,7 @@
         <v>69807.24000000001</v>
       </c>
       <c r="J54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K54">
         <v>4</v>
@@ -5518,8 +6454,23 @@
       <c r="W54">
         <v>-1.01</v>
       </c>
+      <c r="X54">
+        <v>4.52</v>
+      </c>
+      <c r="Y54">
+        <v>50.66</v>
+      </c>
+      <c r="Z54">
+        <v>8.48</v>
+      </c>
       <c r="AC54" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5527,22 +6478,25 @@
       <c r="AG54">
         <v>4.70282506942749</v>
       </c>
-      <c r="AH54" t="s">
-        <v>215</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300870</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-3.77</v>
@@ -5560,7 +6514,7 @@
         <v>171545.31</v>
       </c>
       <c r="J55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5601,8 +6555,23 @@
       <c r="W55">
         <v>0.04</v>
       </c>
+      <c r="X55">
+        <v>2</v>
+      </c>
+      <c r="Y55">
+        <v>257.75</v>
+      </c>
+      <c r="Z55">
+        <v>3.91</v>
+      </c>
       <c r="AC55" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5610,22 +6579,25 @@
       <c r="AG55">
         <v>4.114285945892334</v>
       </c>
-      <c r="AH55" t="s">
-        <v>215</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300897</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>0.15</v>
@@ -5643,7 +6615,7 @@
         <v>45434.37</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -5684,8 +6656,23 @@
       <c r="W56">
         <v>0.37</v>
       </c>
+      <c r="X56">
+        <v>-4.73</v>
+      </c>
+      <c r="Y56">
+        <v>33.58</v>
+      </c>
+      <c r="Z56">
+        <v>1.73</v>
+      </c>
       <c r="AC56" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5693,22 +6680,25 @@
       <c r="AG56">
         <v>3.507110118865967</v>
       </c>
-      <c r="AH56" t="s">
-        <v>215</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300902</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-0.32</v>
@@ -5726,7 +6716,7 @@
         <v>64712.58</v>
       </c>
       <c r="J57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5767,8 +6757,23 @@
       <c r="W57">
         <v>-0.61</v>
       </c>
+      <c r="X57">
+        <v>-1.48</v>
+      </c>
+      <c r="Y57">
+        <v>32.44</v>
+      </c>
+      <c r="Z57">
+        <v>4.65</v>
+      </c>
       <c r="AC57" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5776,22 +6781,25 @@
       <c r="AG57">
         <v>2.759591341018677</v>
       </c>
-      <c r="AH57" t="s">
-        <v>215</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300907</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-4.69</v>
@@ -5809,7 +6817,7 @@
         <v>32541.71</v>
       </c>
       <c r="J58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5850,8 +6858,23 @@
       <c r="W58">
         <v>0.26</v>
       </c>
+      <c r="X58">
+        <v>-6.9</v>
+      </c>
+      <c r="Y58">
+        <v>40.18</v>
+      </c>
+      <c r="Z58">
+        <v>-1.69</v>
+      </c>
       <c r="AC58" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5859,22 +6882,25 @@
       <c r="AG58">
         <v>0.275139719247818</v>
       </c>
-      <c r="AH58" t="s">
-        <v>215</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300913</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>-3.49</v>
@@ -5892,7 +6918,7 @@
         <v>120034.88</v>
       </c>
       <c r="J59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -5933,8 +6959,23 @@
       <c r="W59">
         <v>-0.34</v>
       </c>
+      <c r="X59">
+        <v>-0.23</v>
+      </c>
+      <c r="Y59">
+        <v>59.3</v>
+      </c>
+      <c r="Z59">
+        <v>2.76</v>
+      </c>
       <c r="AC59" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5942,22 +6983,25 @@
       <c r="AG59">
         <v>-3.381237268447876</v>
       </c>
-      <c r="AH59" t="s">
-        <v>215</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>300951</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>4.14</v>
@@ -5975,7 +7019,7 @@
         <v>44457.63</v>
       </c>
       <c r="J60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -6016,8 +7060,23 @@
       <c r="W60">
         <v>0.04</v>
       </c>
+      <c r="X60">
+        <v>-2.46</v>
+      </c>
+      <c r="Y60">
+        <v>43.26</v>
+      </c>
+      <c r="Z60">
+        <v>4.19</v>
+      </c>
       <c r="AC60" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6025,22 +7084,25 @@
       <c r="AG60">
         <v>0.8509008288383484</v>
       </c>
-      <c r="AH60" t="s">
-        <v>215</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>300990</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>-2.19</v>
@@ -6058,7 +7120,7 @@
         <v>37422.68</v>
       </c>
       <c r="J61" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6099,8 +7161,23 @@
       <c r="W61">
         <v>0.19</v>
       </c>
+      <c r="X61">
+        <v>-10.48</v>
+      </c>
+      <c r="Y61">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="Z61">
+        <v>1.67</v>
+      </c>
       <c r="AC61" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6108,22 +7185,25 @@
       <c r="AG61">
         <v>10.78547477722168</v>
       </c>
-      <c r="AH61" t="s">
-        <v>215</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>300995</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>-0.97</v>
@@ -6141,7 +7221,7 @@
         <v>52639.86</v>
       </c>
       <c r="J62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6182,8 +7262,23 @@
       <c r="W62">
         <v>-1.2</v>
       </c>
+      <c r="X62">
+        <v>-3.64</v>
+      </c>
+      <c r="Y62">
+        <v>65.8</v>
+      </c>
+      <c r="Z62">
+        <v>3.64</v>
+      </c>
       <c r="AC62" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6191,22 +7286,25 @@
       <c r="AG62">
         <v>2.381463289260864</v>
       </c>
-      <c r="AH62" t="s">
-        <v>215</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301007</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>3.69</v>
@@ -6224,7 +7322,7 @@
         <v>67041.3</v>
       </c>
       <c r="J63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K63">
         <v>6</v>
@@ -6265,8 +7363,23 @@
       <c r="W63">
         <v>0</v>
       </c>
+      <c r="X63">
+        <v>-2.59</v>
+      </c>
+      <c r="Y63">
+        <v>48.02</v>
+      </c>
+      <c r="Z63">
+        <v>0.48</v>
+      </c>
       <c r="AC63" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6274,22 +7387,25 @@
       <c r="AG63">
         <v>0.01732645742595196</v>
       </c>
-      <c r="AH63" t="s">
-        <v>215</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301018</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>1.98</v>
@@ -6307,7 +7423,7 @@
         <v>127401.6</v>
       </c>
       <c r="J64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6348,8 +7464,23 @@
       <c r="W64">
         <v>0.35</v>
       </c>
+      <c r="X64">
+        <v>-7.88</v>
+      </c>
+      <c r="Y64">
+        <v>69.38</v>
+      </c>
+      <c r="Z64">
+        <v>-0.12</v>
+      </c>
       <c r="AC64" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6357,22 +7488,25 @@
       <c r="AG64">
         <v>5.3976731300354</v>
       </c>
-      <c r="AH64" t="s">
-        <v>215</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301069</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>1.2</v>
@@ -6390,7 +7524,7 @@
         <v>88912.06</v>
       </c>
       <c r="J65" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K65">
         <v>11</v>
@@ -6431,8 +7565,23 @@
       <c r="W65">
         <v>-0.08</v>
       </c>
+      <c r="X65">
+        <v>-4.61</v>
+      </c>
+      <c r="Y65">
+        <v>24.5</v>
+      </c>
+      <c r="Z65">
+        <v>0.04</v>
+      </c>
       <c r="AC65" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6440,22 +7589,25 @@
       <c r="AG65">
         <v>0.9809883236885071</v>
       </c>
-      <c r="AH65" t="s">
-        <v>215</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301076</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-3.61</v>
@@ -6473,7 +7625,7 @@
         <v>129168.03</v>
       </c>
       <c r="J66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K66">
         <v>11</v>
@@ -6514,8 +7666,23 @@
       <c r="W66">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X66">
+        <v>-3.14</v>
+      </c>
+      <c r="Y66">
+        <v>56.5</v>
+      </c>
+      <c r="Z66">
+        <v>0.78</v>
+      </c>
       <c r="AC66" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6523,22 +7690,25 @@
       <c r="AG66">
         <v>1.729973316192627</v>
       </c>
-      <c r="AH66" t="s">
-        <v>215</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301086</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>5.6</v>
@@ -6556,7 +7726,7 @@
         <v>40236.61</v>
       </c>
       <c r="J67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -6597,8 +7767,23 @@
       <c r="W67">
         <v>0.64</v>
       </c>
+      <c r="X67">
+        <v>-7.8</v>
+      </c>
+      <c r="Y67">
+        <v>71.72</v>
+      </c>
+      <c r="Z67">
+        <v>-0.99</v>
+      </c>
       <c r="AC67" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>0</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6606,22 +7791,25 @@
       <c r="AG67">
         <v>4.141090393066406</v>
       </c>
-      <c r="AH67" t="s">
-        <v>215</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301095</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>0.6</v>
@@ -6639,7 +7827,7 @@
         <v>124077.02</v>
       </c>
       <c r="J68" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K68">
         <v>16</v>
@@ -6680,8 +7868,23 @@
       <c r="W68">
         <v>-0.8100000000000001</v>
       </c>
+      <c r="X68">
+        <v>-3.03</v>
+      </c>
+      <c r="Y68">
+        <v>91.56</v>
+      </c>
+      <c r="Z68">
+        <v>2.24</v>
+      </c>
       <c r="AC68" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6689,22 +7892,25 @@
       <c r="AG68">
         <v>2.582663059234619</v>
       </c>
-      <c r="AH68" t="s">
-        <v>215</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301120</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-3.1</v>
@@ -6722,7 +7928,7 @@
         <v>62904.33</v>
       </c>
       <c r="J69" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K69">
         <v>12</v>
@@ -6763,8 +7969,23 @@
       <c r="W69">
         <v>-1.39</v>
       </c>
+      <c r="X69">
+        <v>-3.14</v>
+      </c>
+      <c r="Y69">
+        <v>16.43</v>
+      </c>
+      <c r="Z69">
+        <v>1.17</v>
+      </c>
       <c r="AC69" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6772,22 +7993,25 @@
       <c r="AG69">
         <v>5.603321075439453</v>
       </c>
-      <c r="AH69" t="s">
-        <v>215</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301123</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-5.46</v>
@@ -6805,7 +8029,7 @@
         <v>92464.10000000001</v>
       </c>
       <c r="J70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K70">
         <v>12</v>
@@ -6846,8 +8070,23 @@
       <c r="W70">
         <v>-0.32</v>
       </c>
+      <c r="X70">
+        <v>-6.96</v>
+      </c>
+      <c r="Y70">
+        <v>46.94</v>
+      </c>
+      <c r="Z70">
+        <v>1.49</v>
+      </c>
       <c r="AC70" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6855,22 +8094,25 @@
       <c r="AG70">
         <v>-2.6592698097229</v>
       </c>
-      <c r="AH70" t="s">
-        <v>215</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301128</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-1.27</v>
@@ -6888,7 +8130,7 @@
         <v>109962.28</v>
       </c>
       <c r="J71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6929,8 +8171,23 @@
       <c r="W71">
         <v>-0.04</v>
       </c>
+      <c r="X71">
+        <v>-3.81</v>
+      </c>
+      <c r="Y71">
+        <v>105.55</v>
+      </c>
+      <c r="Z71">
+        <v>9.109999999999999</v>
+      </c>
       <c r="AC71" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6938,22 +8195,25 @@
       <c r="AG71">
         <v>10.43610572814941</v>
       </c>
-      <c r="AH71" t="s">
-        <v>215</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301151</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.7</v>
@@ -6971,7 +8231,7 @@
         <v>37915.79</v>
       </c>
       <c r="J72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -7012,8 +8272,23 @@
       <c r="W72">
         <v>-2.35</v>
       </c>
+      <c r="X72">
+        <v>-3.1</v>
+      </c>
+      <c r="Y72">
+        <v>25.55</v>
+      </c>
+      <c r="Z72">
+        <v>1.39</v>
+      </c>
       <c r="AC72" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7021,22 +8296,25 @@
       <c r="AG72">
         <v>30.5844612121582</v>
       </c>
-      <c r="AH72" t="s">
-        <v>215</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301161</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-0.9399999999999999</v>
@@ -7054,7 +8332,7 @@
         <v>37122.62</v>
       </c>
       <c r="J73" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K73">
         <v>13</v>
@@ -7095,8 +8373,23 @@
       <c r="W73">
         <v>-1.27</v>
       </c>
+      <c r="X73">
+        <v>-1.25</v>
+      </c>
+      <c r="Y73">
+        <v>45.88</v>
+      </c>
+      <c r="Z73">
+        <v>0.95</v>
+      </c>
       <c r="AC73" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>0</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7104,22 +8397,25 @@
       <c r="AG73">
         <v>0.5368887782096863</v>
       </c>
-      <c r="AH73" t="s">
-        <v>215</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301165</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>0.07000000000000001</v>
@@ -7137,7 +8433,7 @@
         <v>139167.31</v>
       </c>
       <c r="J74" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K74">
         <v>7</v>
@@ -7178,8 +8474,23 @@
       <c r="W74">
         <v>-0.5</v>
       </c>
+      <c r="X74">
+        <v>-2.78</v>
+      </c>
+      <c r="Y74">
+        <v>83.98999999999999</v>
+      </c>
+      <c r="Z74">
+        <v>0.51</v>
+      </c>
       <c r="AC74" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7187,22 +8498,25 @@
       <c r="AG74">
         <v>4.80562162399292</v>
       </c>
-      <c r="AH74" t="s">
-        <v>215</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301183</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-3.17</v>
@@ -7220,7 +8534,7 @@
         <v>87875.28999999999</v>
       </c>
       <c r="J75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7261,8 +8575,23 @@
       <c r="W75">
         <v>-1.34</v>
       </c>
+      <c r="X75">
+        <v>-4.77</v>
+      </c>
+      <c r="Y75">
+        <v>79.25</v>
+      </c>
+      <c r="Z75">
+        <v>-0.19</v>
+      </c>
       <c r="AC75" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7270,22 +8599,25 @@
       <c r="AG75">
         <v>4.121414184570312</v>
       </c>
-      <c r="AH75" t="s">
-        <v>215</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301202</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>1.12</v>
@@ -7303,7 +8635,7 @@
         <v>31630.37</v>
       </c>
       <c r="J76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7344,8 +8676,23 @@
       <c r="W76">
         <v>-0.51</v>
       </c>
+      <c r="X76">
+        <v>-4.09</v>
+      </c>
+      <c r="Y76">
+        <v>53.1</v>
+      </c>
+      <c r="Z76">
+        <v>1.07</v>
+      </c>
       <c r="AC76" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7353,22 +8700,25 @@
       <c r="AG76">
         <v>3.577550172805786</v>
       </c>
-      <c r="AH76" t="s">
-        <v>215</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301205</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-1.9</v>
@@ -7386,7 +8736,7 @@
         <v>103092.1</v>
       </c>
       <c r="J77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -7427,8 +8777,23 @@
       <c r="W77">
         <v>0.08</v>
       </c>
+      <c r="X77">
+        <v>-2.67</v>
+      </c>
+      <c r="Y77">
+        <v>111</v>
+      </c>
+      <c r="Z77">
+        <v>1.03</v>
+      </c>
       <c r="AC77" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7436,22 +8801,25 @@
       <c r="AG77">
         <v>10.46036911010742</v>
       </c>
-      <c r="AH77" t="s">
-        <v>215</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301217</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>1.24</v>
@@ -7469,7 +8837,7 @@
         <v>183276.1</v>
       </c>
       <c r="J78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K78">
         <v>33</v>
@@ -7510,8 +8878,23 @@
       <c r="W78">
         <v>0.09</v>
       </c>
+      <c r="X78">
+        <v>-6.46</v>
+      </c>
+      <c r="Y78">
+        <v>33.42</v>
+      </c>
+      <c r="Z78">
+        <v>2.26</v>
+      </c>
       <c r="AC78" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7519,22 +8902,25 @@
       <c r="AG78">
         <v>9.546465873718262</v>
       </c>
-      <c r="AH78" t="s">
-        <v>215</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301219</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>6.13</v>
@@ -7552,7 +8938,7 @@
         <v>105403.88</v>
       </c>
       <c r="J79" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7593,8 +8979,23 @@
       <c r="W79">
         <v>0.13</v>
       </c>
+      <c r="X79">
+        <v>0.48</v>
+      </c>
+      <c r="Y79">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>5</v>
+      </c>
       <c r="AC79" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7602,22 +9003,25 @@
       <c r="AG79">
         <v>-1.19666850566864</v>
       </c>
-      <c r="AH79" t="s">
-        <v>215</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301226</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-5.77</v>
@@ -7635,7 +9039,7 @@
         <v>38087.41</v>
       </c>
       <c r="J80" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K80">
         <v>3</v>
@@ -7676,8 +9080,23 @@
       <c r="W80">
         <v>-0.03</v>
       </c>
+      <c r="X80">
+        <v>-5.46</v>
+      </c>
+      <c r="Y80">
+        <v>38.99</v>
+      </c>
+      <c r="Z80">
+        <v>-0.05</v>
+      </c>
       <c r="AC80" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7685,22 +9104,25 @@
       <c r="AG80">
         <v>-0.7956178188323975</v>
       </c>
-      <c r="AH80" t="s">
-        <v>215</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301312</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>2.28</v>
@@ -7718,7 +9140,7 @@
         <v>34563.08</v>
       </c>
       <c r="J81" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K81">
         <v>8</v>
@@ -7759,8 +9181,23 @@
       <c r="W81">
         <v>0.32</v>
       </c>
+      <c r="X81">
+        <v>-1.53</v>
+      </c>
+      <c r="Y81">
+        <v>51.5</v>
+      </c>
+      <c r="Z81">
+        <v>3.35</v>
+      </c>
       <c r="AC81" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7768,22 +9205,25 @@
       <c r="AG81">
         <v>0.6614339351654053</v>
       </c>
-      <c r="AH81" t="s">
-        <v>215</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>301323</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>0.3</v>
@@ -7801,7 +9241,7 @@
         <v>28081.16</v>
       </c>
       <c r="J82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K82">
         <v>7</v>
@@ -7842,8 +9282,23 @@
       <c r="W82">
         <v>-0.19</v>
       </c>
+      <c r="X82">
+        <v>-3.36</v>
+      </c>
+      <c r="Y82">
+        <v>60.5</v>
+      </c>
+      <c r="Z82">
+        <v>1.07</v>
+      </c>
       <c r="AC82" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -7851,22 +9306,25 @@
       <c r="AG82">
         <v>1.589706301689148</v>
       </c>
-      <c r="AH82" t="s">
-        <v>215</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>301326</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-3.55</v>
@@ -7884,7 +9342,7 @@
         <v>33920.96</v>
       </c>
       <c r="J83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K83">
         <v>9</v>
@@ -7925,8 +9383,23 @@
       <c r="W83">
         <v>-1.32</v>
       </c>
+      <c r="X83">
+        <v>-4.25</v>
+      </c>
+      <c r="Y83">
+        <v>102.26</v>
+      </c>
+      <c r="Z83">
+        <v>0.01</v>
+      </c>
       <c r="AC83" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD83">
+        <v>0</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
       </c>
       <c r="AF83">
         <v>0</v>
@@ -7934,22 +9407,25 @@
       <c r="AG83">
         <v>10.34694862365723</v>
       </c>
-      <c r="AH83" t="s">
-        <v>215</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>301357</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>-2.49</v>
@@ -7967,7 +9443,7 @@
         <v>146938.44</v>
       </c>
       <c r="J84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K84">
         <v>17</v>
@@ -8008,8 +9484,23 @@
       <c r="W84">
         <v>-1.84</v>
       </c>
+      <c r="X84">
+        <v>-3.63</v>
+      </c>
+      <c r="Y84">
+        <v>175</v>
+      </c>
+      <c r="Z84">
+        <v>3.73</v>
+      </c>
       <c r="AC84" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD84">
+        <v>0</v>
+      </c>
+      <c r="AE84">
+        <v>0</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -8017,22 +9508,25 @@
       <c r="AG84">
         <v>-0.878886342048645</v>
       </c>
-      <c r="AH84" t="s">
-        <v>215</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>301392</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>7.34</v>
@@ -8050,7 +9544,7 @@
         <v>60666.04</v>
       </c>
       <c r="J85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -8091,8 +9585,23 @@
       <c r="W85">
         <v>0.95</v>
       </c>
+      <c r="X85">
+        <v>-2.84</v>
+      </c>
+      <c r="Y85">
+        <v>185.56</v>
+      </c>
+      <c r="Z85">
+        <v>4</v>
+      </c>
       <c r="AC85" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD85">
+        <v>0</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -8100,22 +9609,25 @@
       <c r="AG85">
         <v>4.064603328704834</v>
       </c>
-      <c r="AH85" t="s">
-        <v>215</v>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>301397</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-2.89</v>
@@ -8133,7 +9645,7 @@
         <v>60998.24</v>
       </c>
       <c r="J86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -8174,8 +9686,23 @@
       <c r="W86">
         <v>-2.17</v>
       </c>
+      <c r="X86">
+        <v>-4.6</v>
+      </c>
+      <c r="Y86">
+        <v>45.8</v>
+      </c>
+      <c r="Z86">
+        <v>1.78</v>
+      </c>
       <c r="AC86" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8183,22 +9710,25 @@
       <c r="AG86">
         <v>5.023387908935547</v>
       </c>
-      <c r="AH86" t="s">
-        <v>215</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>301398</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>0.74</v>
@@ -8216,7 +9746,7 @@
         <v>56897.86</v>
       </c>
       <c r="J87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K87">
         <v>4</v>
@@ -8257,8 +9787,23 @@
       <c r="W87">
         <v>-0.12</v>
       </c>
+      <c r="X87">
+        <v>-8.43</v>
+      </c>
+      <c r="Y87">
+        <v>54.7</v>
+      </c>
+      <c r="Z87">
+        <v>-0.18</v>
+      </c>
       <c r="AC87" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8266,22 +9811,25 @@
       <c r="AG87">
         <v>7.186835765838623</v>
       </c>
-      <c r="AH87" t="s">
-        <v>215</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>301421</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>6.28</v>
@@ -8299,7 +9847,7 @@
         <v>86837.14</v>
       </c>
       <c r="J88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -8340,8 +9888,23 @@
       <c r="W88">
         <v>1.01</v>
       </c>
+      <c r="X88">
+        <v>-5.42</v>
+      </c>
+      <c r="Y88">
+        <v>88.5</v>
+      </c>
+      <c r="Z88">
+        <v>-0.14</v>
+      </c>
       <c r="AC88" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8349,22 +9912,25 @@
       <c r="AG88">
         <v>-10.01221179962158</v>
       </c>
-      <c r="AH88" t="s">
-        <v>215</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>301489</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>-3.47</v>
@@ -8382,7 +9948,7 @@
         <v>142132.6</v>
       </c>
       <c r="J89" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K89">
         <v>15</v>
@@ -8423,8 +9989,23 @@
       <c r="W89">
         <v>-0.45</v>
       </c>
+      <c r="X89">
+        <v>-3.85</v>
+      </c>
+      <c r="Y89">
+        <v>176.99</v>
+      </c>
+      <c r="Z89">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="AC89" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8432,22 +10013,25 @@
       <c r="AG89">
         <v>22.5246524810791</v>
       </c>
-      <c r="AH89" t="s">
-        <v>215</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>301525</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-5.2</v>
@@ -8465,7 +10049,7 @@
         <v>46894.62</v>
       </c>
       <c r="J90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8506,8 +10090,23 @@
       <c r="W90">
         <v>-0.46</v>
       </c>
+      <c r="X90">
+        <v>-6.23</v>
+      </c>
+      <c r="Y90">
+        <v>100.59</v>
+      </c>
+      <c r="Z90">
+        <v>-0.41</v>
+      </c>
       <c r="AC90" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8515,22 +10114,25 @@
       <c r="AG90">
         <v>2.851092100143433</v>
       </c>
-      <c r="AH90" t="s">
-        <v>215</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>301526</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-2.28</v>
@@ -8548,7 +10150,7 @@
         <v>108456.86</v>
       </c>
       <c r="J91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K91">
         <v>10</v>
@@ -8589,8 +10191,23 @@
       <c r="W91">
         <v>-0.53</v>
       </c>
+      <c r="X91">
+        <v>-2.96</v>
+      </c>
+      <c r="Y91">
+        <v>6.45</v>
+      </c>
+      <c r="Z91">
+        <v>0.47</v>
+      </c>
       <c r="AC91" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8598,22 +10215,25 @@
       <c r="AG91">
         <v>2.539339542388916</v>
       </c>
-      <c r="AH91" t="s">
-        <v>215</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>301626</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>9.17</v>
@@ -8631,7 +10251,7 @@
         <v>71941.21000000001</v>
       </c>
       <c r="J92" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K92">
         <v>4</v>
@@ -8672,8 +10292,23 @@
       <c r="W92">
         <v>0.97</v>
       </c>
+      <c r="X92">
+        <v>1.31</v>
+      </c>
+      <c r="Y92">
+        <v>173.9</v>
+      </c>
+      <c r="Z92">
+        <v>1.32</v>
+      </c>
       <c r="AC92" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>0</v>
@@ -8681,22 +10316,25 @@
       <c r="AG92">
         <v>2.700194358825684</v>
       </c>
-      <c r="AH92" t="s">
-        <v>215</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688035</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>1.58</v>
@@ -8714,7 +10352,7 @@
         <v>78394.38</v>
       </c>
       <c r="J93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8755,8 +10393,23 @@
       <c r="W93">
         <v>-0.06</v>
       </c>
+      <c r="X93">
+        <v>-8.710000000000001</v>
+      </c>
+      <c r="Y93">
+        <v>63.62</v>
+      </c>
+      <c r="Z93">
+        <v>3.25</v>
+      </c>
       <c r="AC93" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8764,22 +10417,25 @@
       <c r="AG93">
         <v>6.618385791778564</v>
       </c>
-      <c r="AH93" t="s">
-        <v>215</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688098</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-4.22</v>
@@ -8797,7 +10453,7 @@
         <v>127387.44</v>
       </c>
       <c r="J94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -8838,8 +10494,23 @@
       <c r="W94">
         <v>-2.27</v>
       </c>
+      <c r="X94">
+        <v>-11.86</v>
+      </c>
+      <c r="Y94">
+        <v>14.93</v>
+      </c>
+      <c r="Z94">
+        <v>1.22</v>
+      </c>
       <c r="AC94" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8847,22 +10518,25 @@
       <c r="AG94">
         <v>6.756241321563721</v>
       </c>
-      <c r="AH94" t="s">
-        <v>215</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688108</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>-7.77</v>
@@ -8880,7 +10554,7 @@
         <v>270516.28</v>
       </c>
       <c r="J95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K95">
         <v>8</v>
@@ -8921,8 +10595,23 @@
       <c r="W95">
         <v>-1.94</v>
       </c>
+      <c r="X95">
+        <v>-8.210000000000001</v>
+      </c>
+      <c r="Y95">
+        <v>37.95</v>
+      </c>
+      <c r="Z95">
+        <v>1.8</v>
+      </c>
       <c r="AC95" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>0</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8930,22 +10619,25 @@
       <c r="AG95">
         <v>3.516865730285645</v>
       </c>
-      <c r="AH95" t="s">
-        <v>215</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688110</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-3.75</v>
@@ -8963,7 +10655,7 @@
         <v>364945.48</v>
       </c>
       <c r="J96" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K96">
         <v>17</v>
@@ -9004,8 +10696,23 @@
       <c r="W96">
         <v>-0.86</v>
       </c>
+      <c r="X96">
+        <v>-12.37</v>
+      </c>
+      <c r="Y96">
+        <v>101.38</v>
+      </c>
+      <c r="Z96">
+        <v>3.15</v>
+      </c>
       <c r="AC96" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -9013,22 +10720,25 @@
       <c r="AG96">
         <v>0.7848771214485168</v>
       </c>
-      <c r="AH96" t="s">
-        <v>215</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688146</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>1.77</v>
@@ -9046,7 +10756,7 @@
         <v>52198.04</v>
       </c>
       <c r="J97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K97">
         <v>6</v>
@@ -9087,8 +10797,23 @@
       <c r="W97">
         <v>-1.15</v>
       </c>
+      <c r="X97">
+        <v>-1.56</v>
+      </c>
+      <c r="Y97">
+        <v>40.58</v>
+      </c>
+      <c r="Z97">
+        <v>0.74</v>
+      </c>
       <c r="AC97" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9096,22 +10821,25 @@
       <c r="AG97">
         <v>3.135387420654297</v>
       </c>
-      <c r="AH97" t="s">
-        <v>215</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688147</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>1.71</v>
@@ -9129,7 +10857,7 @@
         <v>34870.43</v>
       </c>
       <c r="J98" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K98">
         <v>3</v>
@@ -9170,8 +10898,23 @@
       <c r="W98">
         <v>0.5600000000000001</v>
       </c>
+      <c r="X98">
+        <v>-0.87</v>
+      </c>
+      <c r="Y98">
+        <v>38.77</v>
+      </c>
+      <c r="Z98">
+        <v>2.05</v>
+      </c>
       <c r="AC98" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9179,22 +10922,25 @@
       <c r="AG98">
         <v>4.490942478179932</v>
       </c>
-      <c r="AH98" t="s">
-        <v>215</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34">
+    <row r="99" spans="1:35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C99">
         <v>688167</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E99">
         <v>3.56</v>
@@ -9212,7 +10958,7 @@
         <v>126548.21</v>
       </c>
       <c r="J99" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K99">
         <v>11</v>
@@ -9253,8 +10999,23 @@
       <c r="W99">
         <v>-0.53</v>
       </c>
+      <c r="X99">
+        <v>-1.58</v>
+      </c>
+      <c r="Y99">
+        <v>130</v>
+      </c>
+      <c r="Z99">
+        <v>5.52</v>
+      </c>
       <c r="AC99" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+      <c r="AE99">
+        <v>0</v>
       </c>
       <c r="AF99">
         <v>1</v>
@@ -9262,22 +11023,25 @@
       <c r="AG99">
         <v>2.656009674072266</v>
       </c>
-      <c r="AH99" t="s">
-        <v>215</v>
+      <c r="AH99">
+        <v>0</v>
+      </c>
+      <c r="AI99">
+        <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34">
+    <row r="100" spans="1:35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C100">
         <v>688195</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E100">
         <v>0.1</v>
@@ -9295,7 +11059,7 @@
         <v>118034.87</v>
       </c>
       <c r="J100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -9336,8 +11100,23 @@
       <c r="W100">
         <v>-0.01</v>
       </c>
+      <c r="X100">
+        <v>-8.15</v>
+      </c>
+      <c r="Y100">
+        <v>67.73</v>
+      </c>
+      <c r="Z100">
+        <v>0.34</v>
+      </c>
       <c r="AC100" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+      <c r="AE100">
+        <v>0</v>
       </c>
       <c r="AF100">
         <v>0</v>
@@ -9345,22 +11124,25 @@
       <c r="AG100">
         <v>3.816052436828613</v>
       </c>
-      <c r="AH100" t="s">
-        <v>215</v>
+      <c r="AH100">
+        <v>0</v>
+      </c>
+      <c r="AI100">
+        <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:34">
+    <row r="101" spans="1:35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C101">
         <v>688199</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101">
         <v>1.48</v>
@@ -9378,7 +11160,7 @@
         <v>30794.28</v>
       </c>
       <c r="J101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K101">
         <v>6</v>
@@ -9419,8 +11201,23 @@
       <c r="W101">
         <v>0.7</v>
       </c>
+      <c r="X101">
+        <v>-3.59</v>
+      </c>
+      <c r="Y101">
+        <v>29.5</v>
+      </c>
+      <c r="Z101">
+        <v>-0.14</v>
+      </c>
       <c r="AC101" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+      <c r="AE101">
+        <v>0</v>
       </c>
       <c r="AF101">
         <v>0</v>
@@ -9428,22 +11225,25 @@
       <c r="AG101">
         <v>-7.371262550354004</v>
       </c>
-      <c r="AH101" t="s">
-        <v>215</v>
+      <c r="AH101">
+        <v>0</v>
+      </c>
+      <c r="AI101">
+        <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:34">
+    <row r="102" spans="1:35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C102">
         <v>688210</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E102">
         <v>1.38</v>
@@ -9461,7 +11261,7 @@
         <v>38814.07</v>
       </c>
       <c r="J102" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -9502,8 +11302,23 @@
       <c r="W102">
         <v>-0.16</v>
       </c>
+      <c r="X102">
+        <v>-4.73</v>
+      </c>
+      <c r="Y102">
+        <v>42.2</v>
+      </c>
+      <c r="Z102">
+        <v>-1.12</v>
+      </c>
       <c r="AC102" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>0</v>
       </c>
       <c r="AF102">
         <v>0</v>
@@ -9511,22 +11326,25 @@
       <c r="AG102">
         <v>2.560167551040649</v>
       </c>
-      <c r="AH102" t="s">
-        <v>215</v>
+      <c r="AH102">
+        <v>0</v>
+      </c>
+      <c r="AI102">
+        <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:34">
+    <row r="103" spans="1:35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C103">
         <v>688270</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E103">
         <v>-3.39</v>
@@ -9544,7 +11362,7 @@
         <v>107708.97</v>
       </c>
       <c r="J103" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K103">
         <v>6</v>
@@ -9585,8 +11403,23 @@
       <c r="W103">
         <v>-0.39</v>
       </c>
+      <c r="X103">
+        <v>-4.95</v>
+      </c>
+      <c r="Y103">
+        <v>70.77</v>
+      </c>
+      <c r="Z103">
+        <v>0.47</v>
+      </c>
       <c r="AC103" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
       </c>
       <c r="AF103">
         <v>0</v>
@@ -9594,22 +11427,25 @@
       <c r="AG103">
         <v>17.23747825622559</v>
       </c>
-      <c r="AH103" t="s">
-        <v>215</v>
+      <c r="AH103">
+        <v>0</v>
+      </c>
+      <c r="AI103">
+        <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:34">
+    <row r="104" spans="1:35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C104">
         <v>688379</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E104">
         <v>0.17</v>
@@ -9627,7 +11463,7 @@
         <v>33442.01</v>
       </c>
       <c r="J104" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K104">
         <v>9</v>
@@ -9668,8 +11504,23 @@
       <c r="W104">
         <v>-0.19</v>
       </c>
+      <c r="X104">
+        <v>-10.68</v>
+      </c>
+      <c r="Y104">
+        <v>72.3</v>
+      </c>
+      <c r="Z104">
+        <v>8.59</v>
+      </c>
       <c r="AC104" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1</v>
       </c>
       <c r="AF104">
         <v>0</v>
@@ -9677,22 +11528,25 @@
       <c r="AG104">
         <v>2.886382818222046</v>
       </c>
-      <c r="AH104" t="s">
-        <v>215</v>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:34">
+    <row r="105" spans="1:35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105">
         <v>688381</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E105">
         <v>-3.39</v>
@@ -9710,7 +11564,7 @@
         <v>84559.25999999999</v>
       </c>
       <c r="J105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K105">
         <v>2</v>
@@ -9751,8 +11605,23 @@
       <c r="W105">
         <v>-1.21</v>
       </c>
+      <c r="X105">
+        <v>-3.55</v>
+      </c>
+      <c r="Y105">
+        <v>29.25</v>
+      </c>
+      <c r="Z105">
+        <v>1.74</v>
+      </c>
       <c r="AC105" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -9760,22 +11629,25 @@
       <c r="AG105">
         <v>0.1074643731117249</v>
       </c>
-      <c r="AH105" t="s">
-        <v>215</v>
+      <c r="AH105">
+        <v>0</v>
+      </c>
+      <c r="AI105">
+        <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:34">
+    <row r="106" spans="1:35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C106">
         <v>688401</v>
       </c>
       <c r="D106" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106">
         <v>0.5600000000000001</v>
@@ -9793,7 +11665,7 @@
         <v>34980.57</v>
       </c>
       <c r="J106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -9834,8 +11706,23 @@
       <c r="W106">
         <v>-0.5</v>
       </c>
+      <c r="X106">
+        <v>-4.36</v>
+      </c>
+      <c r="Y106">
+        <v>44.54</v>
+      </c>
+      <c r="Z106">
+        <v>0.09</v>
+      </c>
       <c r="AC106" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -9843,22 +11730,25 @@
       <c r="AG106">
         <v>6.148018360137939</v>
       </c>
-      <c r="AH106" t="s">
-        <v>215</v>
+      <c r="AH106">
+        <v>0</v>
+      </c>
+      <c r="AI106">
+        <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:34">
+    <row r="107" spans="1:35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
         <v>688448</v>
       </c>
       <c r="D107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E107">
         <v>-5.57</v>
@@ -9876,7 +11766,7 @@
         <v>29655.34</v>
       </c>
       <c r="J107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K107">
         <v>6</v>
@@ -9917,8 +11807,23 @@
       <c r="W107">
         <v>-0.93</v>
       </c>
+      <c r="X107">
+        <v>-6.05</v>
+      </c>
+      <c r="Y107">
+        <v>63</v>
+      </c>
+      <c r="Z107">
+        <v>2.41</v>
+      </c>
       <c r="AC107" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>0</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -9926,22 +11831,25 @@
       <c r="AG107">
         <v>1.073045492172241</v>
       </c>
-      <c r="AH107" t="s">
-        <v>215</v>
+      <c r="AH107">
+        <v>0</v>
+      </c>
+      <c r="AI107">
+        <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:34">
+    <row r="108" spans="1:35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108">
         <v>688499</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E108">
         <v>7.34</v>
@@ -9959,7 +11867,7 @@
         <v>76935.99000000001</v>
       </c>
       <c r="J108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K108">
         <v>47</v>
@@ -10000,8 +11908,23 @@
       <c r="W108">
         <v>0.13</v>
       </c>
+      <c r="X108">
+        <v>-7.44</v>
+      </c>
+      <c r="Y108">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="Z108">
+        <v>-2.1</v>
+      </c>
       <c r="AC108" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -10009,22 +11932,25 @@
       <c r="AG108">
         <v>6.496102333068848</v>
       </c>
-      <c r="AH108" t="s">
-        <v>215</v>
+      <c r="AH108">
+        <v>0</v>
+      </c>
+      <c r="AI108">
+        <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:34">
+    <row r="109" spans="1:35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>688502</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E109">
         <v>9.66</v>
@@ -10042,7 +11968,7 @@
         <v>70029.50999999999</v>
       </c>
       <c r="J109" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K109">
         <v>18</v>
@@ -10083,8 +12009,23 @@
       <c r="W109">
         <v>0.87</v>
       </c>
+      <c r="X109">
+        <v>-1.98</v>
+      </c>
+      <c r="Y109">
+        <v>423.7</v>
+      </c>
+      <c r="Z109">
+        <v>2.41</v>
+      </c>
       <c r="AC109" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -10092,22 +12033,25 @@
       <c r="AG109">
         <v>8.788064002990723</v>
       </c>
-      <c r="AH109" t="s">
-        <v>215</v>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:34">
+    <row r="110" spans="1:35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C110">
         <v>688519</v>
       </c>
       <c r="D110" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E110">
         <v>-0.02</v>
@@ -10125,7 +12069,7 @@
         <v>85768.25</v>
       </c>
       <c r="J110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -10166,8 +12110,23 @@
       <c r="W110">
         <v>0.1</v>
       </c>
+      <c r="X110">
+        <v>2.85</v>
+      </c>
+      <c r="Y110">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="Z110">
+        <v>6.68</v>
+      </c>
       <c r="AC110" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>0</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -10175,22 +12134,25 @@
       <c r="AG110">
         <v>0.7061672210693359</v>
       </c>
-      <c r="AH110" t="s">
-        <v>215</v>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:34">
+    <row r="111" spans="1:35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C111">
         <v>688556</v>
       </c>
       <c r="D111" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E111">
         <v>-1.53</v>
@@ -10208,7 +12170,7 @@
         <v>80557.46000000001</v>
       </c>
       <c r="J111" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K111">
         <v>18</v>
@@ -10249,8 +12211,23 @@
       <c r="W111">
         <v>0.42</v>
       </c>
+      <c r="X111">
+        <v>-4.21</v>
+      </c>
+      <c r="Y111">
+        <v>12.99</v>
+      </c>
+      <c r="Z111">
+        <v>1.25</v>
+      </c>
       <c r="AC111" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -10258,22 +12235,25 @@
       <c r="AG111">
         <v>3.879806518554688</v>
       </c>
-      <c r="AH111" t="s">
-        <v>215</v>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:34">
+    <row r="112" spans="1:35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C112">
         <v>688582</v>
       </c>
       <c r="D112" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E112">
         <v>4.22</v>
@@ -10291,7 +12271,7 @@
         <v>133154.7</v>
       </c>
       <c r="J112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K112">
         <v>3</v>
@@ -10332,8 +12312,23 @@
       <c r="W112">
         <v>0.78</v>
       </c>
+      <c r="X112">
+        <v>-4.35</v>
+      </c>
+      <c r="Y112">
+        <v>83.02</v>
+      </c>
+      <c r="Z112">
+        <v>0.01</v>
+      </c>
       <c r="AC112" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD112">
+        <v>0</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -10341,22 +12336,25 @@
       <c r="AG112">
         <v>5.465997695922852</v>
       </c>
-      <c r="AH112" t="s">
-        <v>215</v>
+      <c r="AH112">
+        <v>0</v>
+      </c>
+      <c r="AI112">
+        <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:34">
+    <row r="113" spans="1:35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113">
         <v>688584</v>
       </c>
       <c r="D113" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E113">
         <v>12.46</v>
@@ -10374,7 +12372,7 @@
         <v>83545.3</v>
       </c>
       <c r="J113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K113">
         <v>6</v>
@@ -10415,8 +12413,23 @@
       <c r="W113">
         <v>0.63</v>
       </c>
+      <c r="X113">
+        <v>-3.39</v>
+      </c>
+      <c r="Y113">
+        <v>29.65</v>
+      </c>
+      <c r="Z113">
+        <v>4.59</v>
+      </c>
       <c r="AC113" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>0</v>
       </c>
       <c r="AF113">
         <v>0</v>
@@ -10424,22 +12437,25 @@
       <c r="AG113">
         <v>2.560459852218628</v>
       </c>
-      <c r="AH113" t="s">
-        <v>215</v>
+      <c r="AH113">
+        <v>0</v>
+      </c>
+      <c r="AI113">
+        <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:34">
+    <row r="114" spans="1:35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C114">
         <v>688603</v>
       </c>
       <c r="D114" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>-1.31</v>
@@ -10457,7 +12473,7 @@
         <v>49364.76</v>
       </c>
       <c r="J114" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K114">
         <v>6</v>
@@ -10498,8 +12514,23 @@
       <c r="W114">
         <v>-1.16</v>
       </c>
+      <c r="X114">
+        <v>-7.07</v>
+      </c>
+      <c r="Y114">
+        <v>99.88</v>
+      </c>
+      <c r="Z114">
+        <v>7.54</v>
+      </c>
       <c r="AC114" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD114">
+        <v>0</v>
+      </c>
+      <c r="AE114">
+        <v>1</v>
       </c>
       <c r="AF114">
         <v>0</v>
@@ -10507,22 +12538,25 @@
       <c r="AG114">
         <v>7.826379776000977</v>
       </c>
-      <c r="AH114" t="s">
-        <v>215</v>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:34">
+    <row r="115" spans="1:35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C115">
         <v>688648</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115">
         <v>-8.17</v>
@@ -10540,7 +12574,7 @@
         <v>45531.47</v>
       </c>
       <c r="J115" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -10581,8 +12615,23 @@
       <c r="W115">
         <v>-0.48</v>
       </c>
+      <c r="X115">
+        <v>-9.49</v>
+      </c>
+      <c r="Y115">
+        <v>72.19</v>
+      </c>
+      <c r="Z115">
+        <v>2.09</v>
+      </c>
       <c r="AC115" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>0</v>
       </c>
       <c r="AF115">
         <v>0</v>
@@ -10590,22 +12639,25 @@
       <c r="AG115">
         <v>2.573364019393921</v>
       </c>
-      <c r="AH115" t="s">
-        <v>215</v>
+      <c r="AH115">
+        <v>0</v>
+      </c>
+      <c r="AI115">
+        <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:34">
+    <row r="116" spans="1:35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C116">
         <v>688716</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E116">
         <v>4.59</v>
@@ -10623,7 +12675,7 @@
         <v>72570.37</v>
       </c>
       <c r="J116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K116">
         <v>5</v>
@@ -10664,8 +12716,23 @@
       <c r="W116">
         <v>0.65</v>
       </c>
+      <c r="X116">
+        <v>-8.23</v>
+      </c>
+      <c r="Y116">
+        <v>55.73</v>
+      </c>
+      <c r="Z116">
+        <v>-0.99</v>
+      </c>
       <c r="AC116" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
       </c>
       <c r="AF116">
         <v>0</v>
@@ -10673,22 +12740,25 @@
       <c r="AG116">
         <v>-2.668542385101318</v>
       </c>
-      <c r="AH116" t="s">
-        <v>215</v>
+      <c r="AH116">
+        <v>0</v>
+      </c>
+      <c r="AI116">
+        <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:34">
+    <row r="117" spans="1:35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C117">
         <v>688767</v>
       </c>
       <c r="D117" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E117">
         <v>0.07000000000000001</v>
@@ -10706,7 +12776,7 @@
         <v>26282.36</v>
       </c>
       <c r="J117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10747,8 +12817,23 @@
       <c r="W117">
         <v>-0.18</v>
       </c>
+      <c r="X117">
+        <v>-4.29</v>
+      </c>
+      <c r="Y117">
+        <v>45</v>
+      </c>
+      <c r="Z117">
+        <v>-0.07000000000000001</v>
+      </c>
       <c r="AC117" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>0</v>
       </c>
       <c r="AF117">
         <v>0</v>
@@ -10756,8 +12841,11 @@
       <c r="AG117">
         <v>3.729428052902222</v>
       </c>
-      <c r="AH117" t="s">
-        <v>215</v>
+      <c r="AH117">
+        <v>0</v>
+      </c>
+      <c r="AI117">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
